--- a/SVHN/abalation/whether_pseudo/cifar10/account.xlsx
+++ b/SVHN/abalation/whether_pseudo/cifar10/account.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA48910B-E02F-4C48-94B0-E06A339A7386}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7803E13B-2C1B-476C-B982-0435C452D443}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -356,277 +356,127 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>99.47</v>
+        <v>43.615000000000002</v>
       </c>
       <c r="B1">
-        <v>99.47</v>
+        <v>44.152999999999999</v>
       </c>
       <c r="C1">
-        <v>99.48</v>
+        <v>44.405999999999999</v>
       </c>
       <c r="D1">
-        <v>99.41</v>
+        <v>44.405999999999999</v>
       </c>
       <c r="E1">
-        <v>99.4</v>
+        <v>44.405999999999999</v>
       </c>
       <c r="G1" s="1">
-        <f>AVERAGE(A1:E1)</f>
-        <v>99.445999999999998</v>
+        <f t="shared" ref="G1:G5" si="0">AVERAGE(A1:E1)</f>
+        <v>44.197200000000002</v>
       </c>
       <c r="H1" s="1">
-        <f>STDEV(A1:E1)</f>
-        <v>3.7815340802377688E-2</v>
+        <f t="shared" ref="H1:H5" si="1">STDEV(A1:E1)</f>
+        <v>0.34340311588568773</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>88.503</v>
+      </c>
+      <c r="B2">
+        <v>89.472999999999999</v>
+      </c>
+      <c r="C2">
+        <v>89.606999999999999</v>
+      </c>
+      <c r="D2">
+        <v>89.606999999999999</v>
+      </c>
+      <c r="E2">
+        <v>89.606999999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" si="0"/>
+        <v>89.35939999999998</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48224558059146544</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>99.980999999999995</v>
+        <v>81.224999999999994</v>
       </c>
       <c r="B3">
-        <v>99.977000000000004</v>
+        <v>82.625</v>
       </c>
       <c r="C3">
-        <v>99.998999999999995</v>
+        <v>83.126999999999995</v>
       </c>
       <c r="D3">
-        <v>99.98</v>
+        <v>83.126999999999995</v>
       </c>
       <c r="E3">
-        <v>99.998000000000005</v>
+        <v>83.126999999999995</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G13" si="0">AVERAGE(A3:E3)</f>
-        <v>99.986999999999995</v>
+        <f t="shared" si="0"/>
+        <v>82.646199999999993</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H13" si="1">STDEV(A3:E3)</f>
-        <v>1.0606601717797275E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.82367542151019701</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>99.524000000000001</v>
+        <v>98.027000000000001</v>
       </c>
       <c r="B4">
-        <v>98.683999999999997</v>
+        <v>97.941000000000003</v>
       </c>
       <c r="C4">
-        <v>98.73</v>
+        <v>98.286000000000001</v>
       </c>
       <c r="D4">
-        <v>98.843000000000004</v>
+        <v>98.286000000000001</v>
       </c>
       <c r="E4">
-        <v>97.861000000000004</v>
+        <v>98.286000000000001</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>98.728399999999993</v>
+        <v>98.165199999999999</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="1"/>
-        <v>0.59170710659920145</v>
+        <v>0.16818353070381145</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>99.692999999999998</v>
+        <v>51.402000000000001</v>
       </c>
       <c r="B5">
-        <v>99.177999999999997</v>
+        <v>55.701999999999998</v>
       </c>
       <c r="C5">
-        <v>99.292000000000002</v>
+        <v>51.665999999999997</v>
       </c>
       <c r="D5">
-        <v>99.24</v>
+        <v>51.665999999999997</v>
       </c>
       <c r="E5">
-        <v>98.768000000000001</v>
+        <v>51.665999999999997</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>99.234200000000016</v>
+        <v>52.420399999999994</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>0.3295348236529782</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>99.644999999999996</v>
-      </c>
-      <c r="B6">
-        <v>99.03</v>
-      </c>
-      <c r="C6">
-        <v>99.072000000000003</v>
-      </c>
-      <c r="D6">
-        <v>99.14</v>
-      </c>
-      <c r="E6">
-        <v>98.418000000000006</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>99.061000000000007</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.43641379446575335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>99.043000000000006</v>
-      </c>
-      <c r="B7">
-        <v>97.427999999999997</v>
-      </c>
-      <c r="C7">
-        <v>97.516000000000005</v>
-      </c>
-      <c r="D7">
-        <v>97.709000000000003</v>
-      </c>
-      <c r="E7">
-        <v>96.171000000000006</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>97.573400000000007</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0209399100828611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>94.650999999999996</v>
-      </c>
-      <c r="B9">
-        <v>93.206999999999994</v>
-      </c>
-      <c r="C9">
-        <v>89.686999999999998</v>
-      </c>
-      <c r="D9">
-        <v>95.418999999999997</v>
-      </c>
-      <c r="E9">
-        <v>96.320999999999998</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>93.856999999999999</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5958127821551384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>98.94</v>
-      </c>
-      <c r="B10">
-        <v>98.781999999999996</v>
-      </c>
-      <c r="C10">
-        <v>98.198999999999998</v>
-      </c>
-      <c r="D10">
-        <v>98.784999999999997</v>
-      </c>
-      <c r="E10">
-        <v>98.616</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>98.664400000000001</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="1"/>
-        <v>0.28428383703615606</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>96.034000000000006</v>
-      </c>
-      <c r="B11">
-        <v>95.572000000000003</v>
-      </c>
-      <c r="C11">
-        <v>93.465000000000003</v>
-      </c>
-      <c r="D11">
-        <v>96.441999999999993</v>
-      </c>
-      <c r="E11">
-        <v>96.215999999999994</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>95.545800000000014</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="1"/>
-        <v>1.2063474623838659</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>99.994</v>
-      </c>
-      <c r="B12">
-        <v>99.992999999999995</v>
-      </c>
-      <c r="C12">
-        <v>99.99</v>
-      </c>
-      <c r="D12">
-        <v>99.992999999999995</v>
-      </c>
-      <c r="E12">
-        <v>99.991</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>99.992199999999997</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="1"/>
-        <v>1.643167672515993E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>39.241999999999997</v>
-      </c>
-      <c r="B13">
-        <v>32.252000000000002</v>
-      </c>
-      <c r="C13">
-        <v>29.940999999999999</v>
-      </c>
-      <c r="D13">
-        <v>29.468</v>
-      </c>
-      <c r="E13">
-        <v>38.204000000000001</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>33.821399999999997</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="1"/>
-        <v>4.6114720860046354</v>
+        <v>1.8380285090280837</v>
       </c>
     </row>
   </sheetData>
